--- a/cv/cv_info.xlsx
+++ b/cv/cv_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="511">
   <si>
     <t>file_name</t>
   </si>
@@ -22,15 +22,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>name_hints</t>
   </si>
   <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>Abhijit Saran_Resume.doc</t>
   </si>
   <si>
@@ -361,25 +361,25 @@
     <t>jafarikbalahmed[5_5].doc</t>
   </si>
   <si>
-    <t>Abhijit Saran Email</t>
-  </si>
-  <si>
-    <t>Abhimanyu Kumar Mobile</t>
+    <t>Abhijit Saran</t>
+  </si>
+  <si>
+    <t>Abhimanyu Kumar</t>
   </si>
   <si>
     <t>Abhishek Dalal</t>
   </si>
   <si>
-    <t>Abhishek Kumar Email</t>
+    <t>Abhishek Kumar</t>
   </si>
   <si>
     <t>Abhishek Sharma</t>
   </si>
   <si>
-    <t>Adarsh Kumar Yadav</t>
-  </si>
-  <si>
-    <t>Ajai Kumar Gaur</t>
+    <t>Adarsh Kumar</t>
+  </si>
+  <si>
+    <t>Ajai Kumar</t>
   </si>
   <si>
     <t>Ajay Kumar</t>
@@ -391,22 +391,22 @@
     <t>Akash Kamble</t>
   </si>
   <si>
-    <t>Akash S Mane</t>
-  </si>
-  <si>
-    <t>Akash Y Andhale</t>
+    <t>Akash S</t>
+  </si>
+  <si>
+    <t>Akash Y</t>
   </si>
   <si>
     <t>Akhilesh Kushwaha</t>
   </si>
   <si>
-    <t>Akhil Muralidharan Panicker</t>
+    <t>Akhil Muralidharan</t>
   </si>
   <si>
     <t>Akshay Shukla</t>
   </si>
   <si>
-    <t>Akshay S Talgaonkar</t>
+    <t>Akshay S</t>
   </si>
   <si>
     <t>Java</t>
@@ -415,31 +415,25 @@
     <t>Amandeep Hans</t>
   </si>
   <si>
-    <t>Amar Chandrakant Kale</t>
+    <t>Amar Chandrakant</t>
   </si>
   <si>
     <t>Singh</t>
   </si>
   <si>
-    <t>Amitesh Kumar Mobile</t>
-  </si>
-  <si>
-    <t>Amit Kumar Meher</t>
-  </si>
-  <si>
-    <t>Amit Kumar Rai</t>
+    <t>Amitesh Kumar</t>
+  </si>
+  <si>
+    <t>Amit Kumar</t>
   </si>
   <si>
     <t>Amol Falke</t>
   </si>
   <si>
-    <t>Amresh Kumar Yadav</t>
-  </si>
-  <si>
-    <t>Amruta Pravin Naik</t>
-  </si>
-  <si>
-    <t>Anand Kumar Velmurugan</t>
+    <t>Amresh Kumar</t>
+  </si>
+  <si>
+    <t>Amruta Pravin</t>
   </si>
   <si>
     <t>Anand Kumar</t>
@@ -451,7 +445,7 @@
     <t>Aniket Diware</t>
   </si>
   <si>
-    <t>Anil Kumar Garg</t>
+    <t>Anil Kumar</t>
   </si>
   <si>
     <t>Anil Wala</t>
@@ -475,10 +469,10 @@
     <t>Anurag Mishra</t>
   </si>
   <si>
-    <t>Arjun Sah Email</t>
-  </si>
-  <si>
-    <t>Arjun Singh Negi</t>
+    <t>Arjun Sah</t>
+  </si>
+  <si>
+    <t>Arjun Singh</t>
   </si>
   <si>
     <t>Arpit Srivastava</t>
@@ -487,31 +481,31 @@
     <t>Khan</t>
   </si>
   <si>
-    <t>Ashfaq Shaikh Permanent</t>
-  </si>
-  <si>
-    <t>Guru Nanak College</t>
-  </si>
-  <si>
-    <t>Ashish Anant Powar</t>
-  </si>
-  <si>
-    <t>Ashish Singh Chauhan</t>
-  </si>
-  <si>
-    <t>Atul A Kadam</t>
-  </si>
-  <si>
-    <t>Atul Kumar Verma</t>
+    <t>Ashfaq Shaikh</t>
+  </si>
+  <si>
+    <t>Guru Nanak</t>
+  </si>
+  <si>
+    <t>Ashish Anant</t>
+  </si>
+  <si>
+    <t>Ashish Singh</t>
+  </si>
+  <si>
+    <t>Atul A</t>
+  </si>
+  <si>
+    <t>Atul Kumar</t>
   </si>
   <si>
     <t>Atul Chavan</t>
   </si>
   <si>
-    <t>Avadhesh Kumar Pandey</t>
-  </si>
-  <si>
-    <t>Avinash Kumar Vajpayee</t>
+    <t>Avadhesh Kumar</t>
+  </si>
+  <si>
+    <t>Avinash Kumar</t>
   </si>
   <si>
     <t>Kumar</t>
@@ -529,7 +523,7 @@
     <t>Patil</t>
   </si>
   <si>
-    <t>Bhanu Partap Singh</t>
+    <t>Bhanu Partap</t>
   </si>
   <si>
     <t>Bharathi Rajae-mail</t>
@@ -538,13 +532,13 @@
     <t>Bharat Narang</t>
   </si>
   <si>
-    <t>Bharat Vaman Bhere</t>
+    <t>Bharat Vaman</t>
   </si>
   <si>
     <t>Bhaskar Maurya</t>
   </si>
   <si>
-    <t>Darshil Tejkaran Bhavsar</t>
+    <t>Darshil Tejkaran</t>
   </si>
   <si>
     <t>Kumar Tiwari</t>
@@ -553,22 +547,22 @@
     <t>Chaitanya Talasila</t>
   </si>
   <si>
-    <t>Jawaharlal Nehru Technological</t>
+    <t>Jawaharlal Nehru</t>
   </si>
   <si>
     <t>Tiwari House</t>
   </si>
   <si>
-    <t>Chetan Pradip Mestry</t>
+    <t>Chetan Pradip</t>
   </si>
   <si>
     <t>Chetan Singh</t>
   </si>
   <si>
-    <t>Engineer Hexaware Technologies</t>
-  </si>
-  <si>
-    <t>Hari Krishna Mob</t>
+    <t>Engineer Hexaware</t>
+  </si>
+  <si>
+    <t>Hari Krishna</t>
   </si>
   <si>
     <t>Ravindra Danke</t>
@@ -577,7 +571,7 @@
     <t>Datta</t>
   </si>
   <si>
-    <t>Shet Chawl B</t>
+    <t>Shet Chawl</t>
   </si>
   <si>
     <t>Saidarao Daggupati</t>
@@ -601,34 +595,34 @@
     <t>Devendra Pandey</t>
   </si>
   <si>
-    <t>Dinesh Dilip Waditake</t>
-  </si>
-  <si>
-    <t>Dinesh Singh Sikarwar</t>
-  </si>
-  <si>
-    <t>Patil Dipak Digambar</t>
-  </si>
-  <si>
-    <t>Chandra Shekar Edunoru</t>
+    <t>Dinesh Dilip</t>
+  </si>
+  <si>
+    <t>Dinesh Singh</t>
+  </si>
+  <si>
+    <t>Patil Dipak</t>
+  </si>
+  <si>
+    <t>Chandra Shekar</t>
   </si>
   <si>
     <t>Java Application</t>
   </si>
   <si>
-    <t>Farid Ahmed Ansari</t>
+    <t>Farid Ahmed</t>
   </si>
   <si>
     <t>Gagan Suneja</t>
   </si>
   <si>
-    <t>Gajanan Ramdas Patil</t>
+    <t>Gajanan Ramdas</t>
   </si>
   <si>
     <t>Ganesh</t>
   </si>
   <si>
-    <t>Ganta Siva Prasad</t>
+    <t>Ganta Siva</t>
   </si>
   <si>
     <t>Ramdas Garje</t>
@@ -649,25 +643,625 @@
     <t>Ahmed</t>
   </si>
   <si>
+    <t>+91-9818666978</t>
+  </si>
+  <si>
+    <t>+91- 8802633086</t>
+  </si>
+  <si>
+    <t>+91-7042418592</t>
+  </si>
+  <si>
+    <t>9873562657, +91-8076381647</t>
+  </si>
+  <si>
+    <t>8273937554</t>
+  </si>
+  <si>
+    <t>8898656070</t>
+  </si>
+  <si>
+    <t>+91-886-062-3079</t>
+  </si>
+  <si>
+    <t>9811333462, +91-9811923391</t>
+  </si>
+  <si>
+    <t>+91-7391892334</t>
+  </si>
+  <si>
+    <t>8898979371</t>
+  </si>
+  <si>
+    <t>9130534752, 7021005682</t>
+  </si>
+  <si>
+    <t>+919699822153</t>
+  </si>
+  <si>
+    <t>9136709239</t>
+  </si>
+  <si>
+    <t>7387664528, 8446664528</t>
+  </si>
+  <si>
+    <t>7777925316</t>
+  </si>
+  <si>
+    <t>8082775818</t>
+  </si>
+  <si>
+    <t>+91-9008341132</t>
+  </si>
+  <si>
+    <t>+91-7838822221</t>
+  </si>
+  <si>
+    <t>9867919724</t>
+  </si>
+  <si>
+    <t>8123002933</t>
+  </si>
+  <si>
+    <t>7205348006, +917978919981</t>
+  </si>
+  <si>
+    <t>9711966782</t>
+  </si>
+  <si>
+    <t>9764167664</t>
+  </si>
+  <si>
+    <t>7021273832, 9930529405</t>
+  </si>
+  <si>
+    <t>9833235503</t>
+  </si>
+  <si>
+    <t>+919619106995</t>
+  </si>
+  <si>
+    <t>+91-9373828284, 8076687452</t>
+  </si>
+  <si>
+    <t>+91-9867213279</t>
+  </si>
+  <si>
+    <t>- 9975822652</t>
+  </si>
+  <si>
+    <t>+91-9158241801, +91-8080435374</t>
+  </si>
+  <si>
+    <t>+918898726140</t>
+  </si>
+  <si>
+    <t>+91-8130240280</t>
+  </si>
+  <si>
+    <t>+91-7210627032</t>
+  </si>
+  <si>
+    <t>+91-9971091407, +91-9560041355</t>
+  </si>
+  <si>
+    <t>+91-7987885624</t>
+  </si>
+  <si>
+    <t>9807056653</t>
+  </si>
+  <si>
+    <t>+91-7039613308</t>
+  </si>
+  <si>
+    <t>+91-7666592931</t>
+  </si>
+  <si>
+    <t>9163009797</t>
+  </si>
+  <si>
+    <t>9643876887</t>
+  </si>
+  <si>
+    <t>+91-7905189089, +91-8595382384</t>
+  </si>
+  <si>
+    <t>+91- 9873224639</t>
+  </si>
+  <si>
+    <t>09773758797</t>
+  </si>
+  <si>
+    <t>8898780372</t>
+  </si>
+  <si>
+    <t>+91-9860618573</t>
+  </si>
+  <si>
+    <t>- 9086072604</t>
+  </si>
+  <si>
+    <t>8928048868</t>
+  </si>
+  <si>
+    <t>9935999621</t>
+  </si>
+  <si>
+    <t>+91-07838674545</t>
+  </si>
+  <si>
+    <t>+918743035701, 8743035701</t>
+  </si>
+  <si>
+    <t>- 8982964635</t>
+  </si>
+  <si>
+    <t>+91-9910090323</t>
+  </si>
+  <si>
+    <t>9840304696</t>
+  </si>
+  <si>
+    <t>- 9211347452</t>
+  </si>
+  <si>
+    <t>+91-9590271727</t>
+  </si>
+  <si>
+    <t>9899378155</t>
+  </si>
+  <si>
+    <t>9940427017</t>
+  </si>
+  <si>
+    <t>+91-9910930387</t>
+  </si>
+  <si>
+    <t>9960 960 391</t>
+  </si>
+  <si>
+    <t>8767539438</t>
+  </si>
+  <si>
+    <t>8879920491, 8655260657</t>
+  </si>
+  <si>
+    <t>9599154657</t>
+  </si>
+  <si>
+    <t>8882003696, 8745810792</t>
+  </si>
+  <si>
+    <t>07011924294</t>
+  </si>
+  <si>
+    <t>+91- 7702764367</t>
+  </si>
+  <si>
+    <t>8247424031</t>
+  </si>
+  <si>
+    <t>9702 599 186</t>
+  </si>
+  <si>
+    <t>8446888626</t>
+  </si>
+  <si>
+    <t>+91-7827211055</t>
+  </si>
+  <si>
+    <t>+917798531960</t>
+  </si>
+  <si>
+    <t>+91-9899686133</t>
+  </si>
+  <si>
+    <t>9970014425</t>
+  </si>
+  <si>
+    <t>9836769103</t>
+  </si>
+  <si>
+    <t>7039154286, 9082367527</t>
+  </si>
+  <si>
+    <t>+91-9075927658</t>
+  </si>
+  <si>
+    <t>7387947673</t>
+  </si>
+  <si>
+    <t>8763505299, 8779821713</t>
+  </si>
+  <si>
+    <t>8339032467</t>
+  </si>
+  <si>
+    <t>+918882701389</t>
+  </si>
+  <si>
+    <t>9540255007</t>
+  </si>
+  <si>
+    <t>+919896866178, +918447415166</t>
+  </si>
+  <si>
+    <t>8510881080</t>
+  </si>
+  <si>
+    <t>8600828131</t>
+  </si>
+  <si>
+    <t>+91-8109274172</t>
+  </si>
+  <si>
+    <t>+91- 9167627412</t>
+  </si>
+  <si>
+    <t>7411692300</t>
+  </si>
+  <si>
+    <t>+91- 9082627267</t>
+  </si>
+  <si>
+    <t>+91-7021526575</t>
+  </si>
+  <si>
+    <t>+91-9893735130</t>
+  </si>
+  <si>
+    <t>+91- 9096155577</t>
+  </si>
+  <si>
+    <t>9990867216</t>
+  </si>
+  <si>
+    <t>9994358107</t>
+  </si>
+  <si>
+    <t>+917008318763</t>
+  </si>
+  <si>
+    <t>8169382826, 9403583754</t>
+  </si>
+  <si>
+    <t>08149227746</t>
+  </si>
+  <si>
+    <t>9630044288, +919131955298</t>
+  </si>
+  <si>
+    <t>9990527217</t>
+  </si>
+  <si>
+    <t>+919968041084</t>
+  </si>
+  <si>
+    <t>+91-9967426288</t>
+  </si>
+  <si>
+    <t>+91-9717400872</t>
+  </si>
+  <si>
+    <t>abhi.saran@gmail.com</t>
+  </si>
+  <si>
+    <t>arya.abhi1988@gmail.com</t>
+  </si>
+  <si>
+    <t>dalal.abhishek22@gmail.com</t>
+  </si>
+  <si>
+    <t>abhishekjha1991@hotmail.com</t>
+  </si>
+  <si>
+    <t>abhi.sharma1309@gmail.com</t>
+  </si>
+  <si>
+    <t>adarshyadav8898@gmail.com</t>
+  </si>
+  <si>
+    <t>adarshyadaw@gmail.com</t>
+  </si>
+  <si>
+    <t>ajaigaur@yahoo.com</t>
+  </si>
+  <si>
+    <t>ajaybhg@gmail.com, ajaybhg.apps@gmail.com</t>
+  </si>
+  <si>
+    <t>akangupta28@gmail.com</t>
+  </si>
+  <si>
+    <t>kambleakashg@gmail.com</t>
+  </si>
+  <si>
+    <t>maneakash787@gmail.com</t>
+  </si>
+  <si>
+    <t>akashandhale86@gmail.com</t>
+  </si>
+  <si>
+    <t>akhimca2000@gmail.com</t>
+  </si>
+  <si>
+    <t>panickersakhil@gmail.com</t>
+  </si>
+  <si>
+    <t>akshayshukla85@gmail.com</t>
+  </si>
+  <si>
+    <t>talgaonkar.akshay@gmail.com</t>
+  </si>
+  <si>
+    <t>tech.aloksingh@gmail.com</t>
+  </si>
+  <si>
+    <t>ahans43@gmail.com</t>
+  </si>
+  <si>
+    <t>kamarreddy8@gmail.com</t>
+  </si>
+  <si>
+    <t>amitesh.sql@gmail.com</t>
+  </si>
+  <si>
+    <t>amitmeher2010sd@gmail.com</t>
+  </si>
+  <si>
+    <t>amitmca107@gmail.com</t>
+  </si>
+  <si>
+    <t>ayfalke@gmail.com</t>
+  </si>
+  <si>
+    <t>amreshky8@gmail.com</t>
+  </si>
+  <si>
+    <t>ummaa12@gmail.com</t>
+  </si>
+  <si>
+    <t>anandkumarkannan29@gmail.com</t>
+  </si>
+  <si>
+    <t>anandd.ssingh@gmail.com</t>
+  </si>
+  <si>
+    <t>aniket.27.chalke@gmail.com</t>
+  </si>
+  <si>
+    <t>aniketdiware@gmail.com</t>
+  </si>
+  <si>
+    <t>anil.garg010@gmail.com, anil_garg010@rediffmail.com</t>
+  </si>
+  <si>
+    <t>anilwala4@gmail.com</t>
+  </si>
+  <si>
+    <t>ankitcoerian@gmail.com</t>
+  </si>
+  <si>
+    <t>ankitjaiswal023@gmail.com</t>
+  </si>
+  <si>
+    <t>india.anshuanand@gmail.com</t>
+  </si>
+  <si>
+    <t>anshulrathore0001@gmail.com</t>
+  </si>
+  <si>
+    <t>anshuman.t.tripathi5@gmail.com</t>
+  </si>
+  <si>
+    <t>anuragjec0091@gmail.com</t>
+  </si>
+  <si>
+    <t>abm.anurag@gmail.com</t>
+  </si>
+  <si>
+    <t>arjunsahkolkata@gmail.com</t>
+  </si>
+  <si>
+    <t>negi.arjun09@gmail.com</t>
+  </si>
+  <si>
+    <t>arpits096@gmail.com</t>
+  </si>
+  <si>
+    <t>khan.asfuddin9910@gmail.com</t>
+  </si>
+  <si>
+    <t>ashushaikh007@gmail.com</t>
+  </si>
+  <si>
+    <t>apal9623@gmail.com, palashisha1@gmail.com</t>
+  </si>
+  <si>
+    <t>ashishpowar17@gmail.com</t>
+  </si>
+  <si>
+    <t>ashish.8789@gmail.com</t>
+  </si>
+  <si>
+    <t>akadam210189@gmail.com</t>
+  </si>
+  <si>
+    <t>atulakv123@gmail.com</t>
+  </si>
+  <si>
+    <t>avadheshpandey2000@gmail.com</t>
+  </si>
+  <si>
+    <t>avinashvajpayee9@gmail.com</t>
+  </si>
+  <si>
+    <t>awanish2580@gmail.com</t>
+  </si>
+  <si>
+    <t>badrish15@gmail.com</t>
+  </si>
+  <si>
+    <t>balamurugan2000@gmail.com</t>
+  </si>
+  <si>
+    <t>-balwant.niit@gmail.com</t>
+  </si>
+  <si>
+    <t>bsgouda.patil@gmail.com</t>
+  </si>
+  <si>
+    <t>yadav.bhanu0@gmail.com</t>
+  </si>
+  <si>
+    <t>bharathirajacd@gmail.com</t>
+  </si>
+  <si>
+    <t>narangs.bharat@gmail.com</t>
+  </si>
+  <si>
+    <t>bharatbhere14@gmail.com</t>
+  </si>
+  <si>
+    <t>bhaskar.maurya612@gmail.com</t>
+  </si>
+  <si>
+    <t>bhavsarlucky49@gmail.com</t>
+  </si>
+  <si>
+    <t>bhupender.krgarg@gmail.com</t>
+  </si>
+  <si>
+    <t>tiwaribimlesh56@gmail.com</t>
+  </si>
+  <si>
+    <t>endbrij@yahoo.com</t>
+  </si>
+  <si>
+    <t>ctalasilaerp@gmail.com</t>
+  </si>
+  <si>
+    <t>chanakya0104@gmail.com</t>
+  </si>
+  <si>
+    <t>tiwaric111@gmail.com</t>
+  </si>
+  <si>
+    <t>cpmestry@gmail.com</t>
+  </si>
+  <si>
+    <t>chetansrc@gmail.com</t>
+  </si>
+  <si>
+    <t>chinmay8116@gmail.com</t>
+  </si>
+  <si>
+    <t>email-hari09july@gmail.com</t>
+  </si>
+  <si>
+    <t>ravindra_danke@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>aishik.datta1011@gmail.com</t>
+  </si>
+  <si>
+    <t>dadasaheb0906@gmail.com</t>
+  </si>
+  <si>
+    <t>saidaebs14@gmail.com</t>
+  </si>
+  <si>
+    <t>shelkedattaj@gmail.com</t>
+  </si>
+  <si>
+    <t>tapudebasis@gmail.com</t>
+  </si>
+  <si>
+    <t>deepakmalana.101@gmail.com</t>
+  </si>
+  <si>
+    <t>deepakmanojsingh@gmail.com</t>
+  </si>
+  <si>
+    <t>oracle.dkbhadana@gmail.com</t>
+  </si>
+  <si>
+    <t>er.deepak46@yahoo.com</t>
+  </si>
+  <si>
+    <t>er.devendrapandey@hotmail.com</t>
+  </si>
+  <si>
+    <t>waditakedineshd@gmail.com</t>
+  </si>
+  <si>
+    <t>dinsoftpro15@gmail.com</t>
+  </si>
+  <si>
+    <t>dipak.dpatil1986@gmail.com</t>
+  </si>
+  <si>
+    <t>eshekar10@gmail.com</t>
+  </si>
+  <si>
+    <t>evn526870@gmail.com</t>
+  </si>
+  <si>
+    <t>mohammedansarifarid@gmail.com</t>
+  </si>
+  <si>
+    <t>er.gagansuneja@gmail.com</t>
+  </si>
+  <si>
+    <t>patilgajanan20@gmail.com</t>
+  </si>
+  <si>
+    <t>gskkokande@gmail.com</t>
+  </si>
+  <si>
+    <t>ganeshsharma93@gmail.com</t>
+  </si>
+  <si>
+    <t>sivaganta0546@gmail.com</t>
+  </si>
+  <si>
+    <t>garjear@gmail.com</t>
+  </si>
+  <si>
+    <t>girishaparadh7@gmail.com</t>
+  </si>
+  <si>
+    <t>harshbillore@gmail.com</t>
+  </si>
+  <si>
+    <t>indra.kashyap@gmail.com</t>
+  </si>
+  <si>
+    <t>ishwarchand90@gmail.com</t>
+  </si>
+  <si>
+    <t>izharulh.khan@gmail.com</t>
+  </si>
+  <si>
+    <t>jafarikbal4u@gmail.com, decentikbal4u@gmail.com</t>
+  </si>
+  <si>
     <t>Saran Email, Uttar Pradesh Technical</t>
   </si>
   <si>
-    <t>KUMAR Mobile, Engineer, Dashrath Prasad, Prasad, Uttar Pradesh, Abhimanyu Kumar, Kumar</t>
+    <t>KUMAR Mobile, Engineer, Dashrath Prasad, Prasad, Uttar Pradesh</t>
   </si>
   <si>
     <t>DALAL, Guru Jambheshwar University</t>
   </si>
   <si>
-    <t>KUMAR Email, Chain Management, GOYAL BROTHERS PRAKASHAN, GOYAL BROTHERS PRAKASHAN, Surya Roshni, Roshni, Amol Jha, Jha, KUMAR</t>
-  </si>
-  <si>
-    <t>Sharma, Jan, Anand Engineering College, Abdul Kalam Technical, Kalam Technical University, Manoj Kumar Sharma, Kumar Sharma, Sharma, Indra Colony, Abhishek Sharma, Sharma</t>
-  </si>
-  <si>
-    <t>Kumar Yadav, Yadav, Nagar, Jhunjhunwala college Ghatkopar, Jhunjhunwala College, Yogiraj Shree Krishna, Shree Krishna Vidyalaya, Krishna Vidyalaya, Engineer, Ramswaroop Yadav, Yadav, Adarsh Yadav, Yadav</t>
-  </si>
-  <si>
-    <t>Kumar Yadav, Yadav, Nagar, Jhunjhunwala college Ghatkopar, Jhunjhunwala College, Yogiraj Shree Krishna, Shree Krishna Vidyalaya, Krishna Vidyalaya, Engineer, engineer, Ramswaroop Yadav, Yadav, Adarsh Yadav, Yadav</t>
+    <t>KUMAR Email, Chain Management, GOYAL BROTHERS PRAKASHAN, GOYAL BROTHERS PRAKASHAN, Surya Roshni</t>
+  </si>
+  <si>
+    <t>Sharma, Jan, Anand Engineering College, Abdul Kalam Technical, Kalam Technical University</t>
+  </si>
+  <si>
+    <t>Kumar Yadav, Yadav, Nagar, Jhunjhunwala college Ghatkopar, Jhunjhunwala College</t>
   </si>
   <si>
     <t>KUMAR GAUR, GAUR, Engineer, Engineer</t>
@@ -676,61 +1270,61 @@
     <t>Kumar, Prasad, Yamuna Vihar, AJAY KUMAR NEW, KUMAR NEW DELHI</t>
   </si>
   <si>
-    <t>Gupta, Java Beans, Engineer, Engineer, Baby follow-ups, Akanksha Gupta, Gupta, Jagdish Gupta, Gupta, Satya Sai Nagar, Sai Nagar, Nagar, Akanksha Gupta, Gupta</t>
-  </si>
-  <si>
-    <t>KAMBLE, Raheja Township, Patkar College, Utkarsha Mandir, Mandir, Shree NM Electricals, JAVA Servlet, JAVA, AKASH KAMBLE, KAMBLE, Raheja Township, Patkar College, Utkarsha Mandir, Mandir, Shree NM Electricals, JAVA Servlet, JAVA, java, JAVA ITSource Technologies</t>
-  </si>
-  <si>
-    <t>Mane, Hinduja Global Solutions, Shivraj College, Shivaji University, Akash Suresh Mane, Suresh Mane, Mane, Wani Chawal, Akash S Mane, Mane</t>
-  </si>
-  <si>
-    <t>Akash y Andhale, Kranti Co Off, Kranti Co Off, Akash y Andhale, Kranti Co Off, Kranti Co Off, Raja Rajeshwari mahila, Rajeshwari mahila Co, Raja Rajeshwari mahila, Rajeshwari mahila Co, yashwant Andhale, Gauri pada road, pada road, Akash y Andhale</t>
+    <t>Gupta, Java Beans, Engineer, Engineer, Baby follow-ups</t>
+  </si>
+  <si>
+    <t>KAMBLE, Raheja Township, Patkar College, Utkarsha Mandir, Mandir</t>
+  </si>
+  <si>
+    <t>Mane, Hinduja Global Solutions, Shivraj College, Shivaji University, Akash Suresh Mane</t>
+  </si>
+  <si>
+    <t>Akash y Andhale, Kranti Co Off, Kranti Co Off, Akash y Andhale, Kranti Co Off</t>
   </si>
   <si>
     <t>KUSHWAHA, Engineer, Engineer, Bharti Airtel, Uttar Pradesh Technical</t>
   </si>
   <si>
-    <t>MURALIDHARAN PANICKER, PANICKER, AKHIL MURALIDHARAN PANICKER, MURALIDHARAN PANICKER, PANICKER, AKHIL MURALIDHARAN PANICKER, MURALIDHARAN PANICKER, PANICKER, Jindal Polyfilms, Aditya Birla Group, Birla Group, AKHIL MURALIDHARAN PANICKER, MURALIDHARAN PANICKER, PANICKER, AKHIL MURALIDHARAN PANICKER, MURALIDHARAN PANICKER, PANICKER, Jindal Polyfilms, Aditya Birla Group, Birla Group, AKHIL MURALIDHARAN PANICKER, MURALIDHARAN PANICKER, PANICKER, AKHIL MURALIDHARAN PANICKER, MURALIDHARAN PANICKER, PANICKER, AKHIL MURALIDHARAN PANICKER, MURALIDHARAN PANICKER, PANICKER, Jindal Polyfilms, Aditya Birla Group, Birla Group, AKHIL MURALIDHARAN PANICKER, MURALIDHARAN PANICKER, PANICKER, AKHIL MURALIDHARAN PANICKER, MURALIDHARAN PANICKER, PANICKER, Muralidharan Shridhar Panicker, Shridhar Panicker, Panicker, Vasant Panchami building, Vasant Vihar, PANICKER</t>
+    <t>MURALIDHARAN PANICKER, PANICKER, AKHIL MURALIDHARAN PANICKER, MURALIDHARAN PANICKER, PANICKER</t>
   </si>
   <si>
     <t>Shukla, Shankar Lane kandivali, Akshay Shukla, Shukla, Shankar Lane kandivali</t>
   </si>
   <si>
-    <t>Talgaonkar, Engineer, Engineer, Java Developer, Engineer, Akshay Talgaonkar, Talgaonkar</t>
+    <t>Talgaonkar, Engineer, Engineer, Java Developer, Engineer</t>
   </si>
   <si>
     <t>Engineer, Engineer, Java Script, Java script, Java script</t>
   </si>
   <si>
-    <t>HANS, Vaish College, AMANDEEP HANS, HANS, Vaish College, AMANDEEP HANS, HANS, Vaish College, Amandeep Hans, Hans</t>
-  </si>
-  <si>
-    <t>CHANDRAKANT KALE, KALE, Parimal High School, AMAR CHANDRAKANT KALE, CHANDRAKANT KALE, KALE, Parimal High School, Chandrakant Bhimrao Kale, Kale, Amar Kale, Kale, Amar Kale, Kale</t>
-  </si>
-  <si>
-    <t>GUL tools, master data, Chain, master data, master data, master data, peer reviewing activities, Modi Group, Vilas, peer reviewing activities</t>
+    <t>HANS, Vaish College, AMANDEEP HANS, HANS, Vaish College</t>
+  </si>
+  <si>
+    <t>CHANDRAKANT KALE, KALE, Parimal High School, AMAR CHANDRAKANT KALE, CHANDRAKANT KALE</t>
+  </si>
+  <si>
+    <t>GUL tools, master data, Chain, master data, master data</t>
   </si>
   <si>
     <t>Kumar Mobile, Mahindra, peer code reviews</t>
   </si>
   <si>
-    <t>KUMAR MEHER, MEHER, JAVA, Jan, Engineer Nov, Java, Java, mange customer, Java, Java, Java, Purna Chandra High, Chandra High school, Meher, Meher, Amit Kumar Meher, Kumar Meher, Meher</t>
-  </si>
-  <si>
-    <t>Kumar Rai, Rai, Engineer, Java, Java Technology, Java, Java, Java Script, Java, Java Developer, Engineer, Java, Manipal University, Prem Chand Rai, Chand Rai, Rai, Ram Dhanao, AMIT KUMAR RAI, KUMAR RAI, RAI</t>
+    <t>KUMAR MEHER, MEHER, JAVA, Jan, Engineer Nov</t>
+  </si>
+  <si>
+    <t>Kumar Rai, Rai, Engineer, Java, Java Technology</t>
   </si>
   <si>
     <t>chain process, master data, Ori Plast Pvt</t>
   </si>
   <si>
-    <t>Kumar Yadav, Yadav, Amresh Kumar Yadav, Kumar Yadav, Yadav, Uttar Pradesh Technical, Kumar YadavBTech, Uttar Pradesh Technical, Amresh Kumar Yadav, Kumar Yadav, Yadav, Yadav E-mail, JAVA, Java Script, Uttar Pradesh Technical, Sparsh Culture Programme, Amresh Kumar YadavFather, Kumar YadavFather, Ram Pratap YadavMother, Pratap YadavMother, Amresh K YadavSr</t>
-  </si>
-  <si>
-    <t>PRAVIN NAIK, NAIK, Swami Vivekand, Amruta Naik, Naik, Amruta Naik, Naik</t>
-  </si>
-  <si>
-    <t>KUMAR VELMURUGAN, VELMURUGAN, Subash Nagar, Nagar, Engineer, Engineer, KIAH jewellery website, Anna University, Jayaraj Annapackiam CSI, Anand Kumar, Kumar</t>
+    <t>Kumar Yadav, Yadav, Amresh Kumar Yadav, Kumar Yadav, Yadav</t>
+  </si>
+  <si>
+    <t>PRAVIN NAIK, NAIK, Swami Vivekand, Amruta Naik, Naik</t>
+  </si>
+  <si>
+    <t>KUMAR VELMURUGAN, VELMURUGAN, Subash Nagar, Nagar, Engineer</t>
   </si>
   <si>
     <t>Kumar, Java Web Services, Java Web Services, Java Web Services, peer code</t>
@@ -739,37 +1333,37 @@
     <t>Chalke, Master, Aniket Chalke, Chalke, Master</t>
   </si>
   <si>
-    <t>Aniket Diware, Lahoti mahavidyla Amravati, Dilip Diware, Samrat Apartment Yashwant, Yashwant Nagar, Nagar, Aniket Diware, Aniket Diware, Lahoti mahavidyla Amravati, Dilip Diware, Samrat Apartment Yashwant, Yashwant Nagar, Nagar, Aniket Diware</t>
-  </si>
-  <si>
-    <t>Kumar Garg, Garg, Nagar Boisar, Awadhesh Pratap Singh, Pratap Singh University, Singh University, Anil Kumar Garg, Kumar Garg, Garg, Shri Ram Lakhan, Ram Lakhan Garg, Lakhan Garg, Garg, Panna, Anil Kumar Garg, Kumar Garg, Garg</t>
-  </si>
-  <si>
-    <t>WALA, engineer, Engineer, Bajaj Finance Ltd, Engineer, Sai hospital</t>
-  </si>
-  <si>
-    <t>GARG, Sumi InfoTech, ANKIT GARG, GARG, Sumi InfoTech, Sumi InfoTech, Bharat Heavy Electricals, DISHA Committee, Praveen Kumar Garg, Kumar Garg, Garg, Amber Talab, ANKIT GARG, GARG, Sumi InfoTech, Sumi InfoTech, Bharat Heavy Electricals, DISHA Committee, Praveen Kumar Garg, Kumar Garg, Garg, Amber Talab, Sumi InfoTech</t>
+    <t>Aniket Diware, Lahoti mahavidyla Amravati, Dilip Diware, Samrat Apartment Yashwant, Yashwant Nagar</t>
+  </si>
+  <si>
+    <t>Kumar Garg, Garg, Nagar Boisar, Awadhesh Pratap Singh, Pratap Singh University</t>
+  </si>
+  <si>
+    <t>WALA, engineer, Engineer, Bajaj Finance Ltd, Engineer</t>
+  </si>
+  <si>
+    <t>GARG, Sumi InfoTech, ANKIT GARG, GARG, Sumi InfoTech</t>
   </si>
   <si>
     <t>Kumar, Java script, Mohal, Ankit Kumar, Kumar</t>
   </si>
   <si>
-    <t>ANAND, MASTER OF COMPUTER, Manipal University, Bharat Desham, Jeevan Sangini, Akhil Bhartiya Vigyan, Bhartiya Vigyan Sammelan, Ila Jha, Jha, Lalan Kumar Jha, Kumar Jha, Jha, Anil Gupta, Gupta, Harsh Goel, Goel</t>
-  </si>
-  <si>
-    <t>Rathore, Engineer, May, Anshul Rathore, Rathore, Engineer, May, Peer code review, Peer code review, Anshul Rathore, Rathore, Engineer, May, Peer code review, Peer code review, Vijay Rathore, Rathore, Bhawana Rathore, Rathore, Samarth City Nainod</t>
-  </si>
-  <si>
-    <t>Tripathi, java, Java Technologies, Maharaj University, Engineer, Anshuman Tripathi, Tripathi, java, Java Technologies, Maharaj University, Engineer, Java SE, java, java, Shailendra Kumar Tripathi, Kumar Tripathi, Tripathi, Sangeeta Tripathi, Tripathi, Anshuman Tripathi, Tripathi</t>
-  </si>
-  <si>
-    <t>Mishra, Vashi, Engineer, Engineer, Java Script, Engineer, Mishra, Anurag Mishra, Mishra</t>
-  </si>
-  <si>
-    <t>Mishra, Chandresh Jyoti Lodha, Jyoti Lodha Heaven, Lodha Heaven, Java, Chain, Chain, Anurag Mishra, Mishra, Chandresh Jyoti Lodha, Jyoti Lodha Heaven, Lodha Heaven, Java, Chain, Chain, Engineer, Sarkar</t>
-  </si>
-  <si>
-    <t>SAH Email ID, ARJUN SAH, SAH, ENGINEER, Engineer, Engineer, Java, Java, Java, Engineer, Moti Daman, Daman, Java, May, Sah, ARJUN SAH, SAH</t>
+    <t>ANAND, MASTER OF COMPUTER, Manipal University, Bharat Desham, Jeevan Sangini</t>
+  </si>
+  <si>
+    <t>Rathore, Engineer, May, Anshul Rathore, Rathore</t>
+  </si>
+  <si>
+    <t>Tripathi, java, Java Technologies, Maharaj University, Engineer</t>
+  </si>
+  <si>
+    <t>Mishra, Vashi, Engineer, Engineer, Java Script</t>
+  </si>
+  <si>
+    <t>Mishra, Chandresh Jyoti Lodha, Jyoti Lodha Heaven, Lodha Heaven, Java</t>
+  </si>
+  <si>
+    <t>SAH Email ID, ARJUN SAH, SAH, ENGINEER, Engineer</t>
   </si>
   <si>
     <t>Nanda Hospital, Bansal ERP, Bansal Inventory</t>
@@ -778,784 +1372,181 @@
     <t>Srivastava, Mahesh Prasad Street, Prasad Street, Arpit Srivastava, Srivastava</t>
   </si>
   <si>
-    <t>Nagar, Engineer, Diksha Technologies Gurgaon, ware house, master jobs, Khan, Khan</t>
-  </si>
-  <si>
-    <t>SHAIKH Permanent address, Rajiv Gandhi nagar, Gandhi nagar, nagar, Engineer, Engineer, GOLD BULLION, Ahmed Shaikh, Shaikh, Ashfaq Shaikh, Shaikh</t>
-  </si>
-  <si>
-    <t>Nanak College, Guru Nanak College, Nanak College, Shri GauriDutt Mittal, Mittal, Shri GauriDutt Mittal, Mittal, Java Frame, Java, Sanjay Gandhi Nagar, Gandhi Nagar, Nagar, Nehru Garden</t>
-  </si>
-  <si>
-    <t>ANANT POWAR, Engineer, Sanjay Ghodawat Institutions, Sanjay Ghodawat Institutions, Sanjay Ghodawat Institute, Jagruti High School</t>
-  </si>
-  <si>
-    <t>SINGH CHAUHAN House, CHAUHAN House No-, ASHISH SINGH CHAUHAN, SINGH CHAUHAN, CHAUHAN, Singh Chauhan, Chauhan, chain consulting, Chain management, Chain Management, Chain Application, Chain Management, Chain Application, Engineer, Singh, Singh Chauhan, Chauhan</t>
-  </si>
-  <si>
-    <t>Kadam, Chain, chain software, Atul A Kadam, Kadam, Chain, chain software, chain principles, Atul A Kadam, Kadam, Chain, chain software, chain principles, Atul A Kadam, Kadam, Chain, chain software, chain principles, Priti Complex Co-Operative, Atul Kadam, Kadam</t>
+    <t>Nagar, Engineer, Diksha Technologies Gurgaon, ware house, master jobs</t>
+  </si>
+  <si>
+    <t>SHAIKH Permanent address, Rajiv Gandhi nagar, Gandhi nagar, nagar, Engineer</t>
+  </si>
+  <si>
+    <t>Nanak College, Guru Nanak College, Nanak College, Shri GauriDutt Mittal, Mittal</t>
+  </si>
+  <si>
+    <t>ANANT POWAR, Engineer, Sanjay Ghodawat Institutions, Sanjay Ghodawat Institutions, Sanjay Ghodawat Institute</t>
+  </si>
+  <si>
+    <t>SINGH CHAUHAN House, CHAUHAN House No-, ASHISH SINGH CHAUHAN, SINGH CHAUHAN, CHAUHAN</t>
+  </si>
+  <si>
+    <t>Kadam, Chain, chain software, Atul A Kadam, Kadam</t>
   </si>
   <si>
     <t>KUMAR VERMA, VERMA, ATUL KUMAR VERMA, KUMAR VERMA, VERMA</t>
   </si>
   <si>
-    <t>chavan, atul chavan, chavan, atul chavan, chavan, atul chavan, chavan, Vikram Kumar, Kumar</t>
-  </si>
-  <si>
-    <t>Kumar pandey, pandey, engineer, engineer, engineer, Engineer, Engineer, Engineer, Master, Master, Master, Satish chandra pandey, chandra pandey, pandey, Indira Nagar, Nagar, Avadhesh pandey, pandey</t>
-  </si>
-  <si>
-    <t>KUMAR VAJPAYEE, Renuka Associates Pvt, Renuka Associates Pvt, BATRA Group, Surendra Kumar Vajpayee, Kumar Vajpayee, Ashok Nagar, Nagar, Avinash Kumar Vajpayee, Kumar Vajpayee</t>
+    <t>chavan, atul chavan, chavan, atul chavan, chavan</t>
+  </si>
+  <si>
+    <t>Kumar pandey, pandey, engineer, engineer, engineer</t>
+  </si>
+  <si>
+    <t>KUMAR VAJPAYEE, Renuka Associates Pvt, Renuka Associates Pvt, BATRA Group, Surendra Kumar Vajpayee</t>
   </si>
   <si>
     <t>KUMAR, Rajiv Gandhi, Gandhi, Shakti kripa Appt, kripa Appt Airoli</t>
   </si>
   <si>
-    <t>Engineer, Engineer, Engineer, Engineer, bhavan Delhi, Adarsh Bal Niketan, Bal Niketan, Niketan, JOSHI</t>
-  </si>
-  <si>
-    <t>Engineer, Engineer, May, Java, Java Script, Nagar, Engineer, Engineer, May, Java, Java Script, Naina Mohamed College, Mohamed College, Nagar, Engineer, Engineer, May, Java, Java Script, Naina Mohamed College, Mohamed College</t>
-  </si>
-  <si>
-    <t>Nagar, BALWANT LAL Mo, LAL Mo No, Magadh University Bodh, Patna, Patna, Prasad, Balwant Lal, Lal</t>
-  </si>
-  <si>
-    <t>Mantra Software Solution, Nutan Vidyalaya society, May, Aditya Birla Retail, Birla Retail ltd, Aditya Birla Retail, Birla Retail Limited, Aditya Birla Group, Birla Group, Soham Renewable Energy, Patil</t>
-  </si>
-  <si>
-    <t>PARTAP SINGH, SINGH, Chain Management, Master Data setup, master, master, master, master, master, master, Rohtak, Singh</t>
+    <t>Engineer, Engineer, Engineer, Engineer, bhavan Delhi</t>
+  </si>
+  <si>
+    <t>Engineer, Engineer, May, Java, Java Script</t>
+  </si>
+  <si>
+    <t>Nagar, BALWANT LAL Mo, LAL Mo No, Magadh University Bodh, Patna</t>
+  </si>
+  <si>
+    <t>Mantra Software Solution, Nutan Vidyalaya society, May, Aditya Birla Retail, Birla Retail ltd</t>
+  </si>
+  <si>
+    <t>PARTAP SINGH, SINGH, Chain Management, Master Data setup, master</t>
   </si>
   <si>
     <t>Anna University, Java, java program</t>
   </si>
   <si>
-    <t>NARANG, BHARAT NARANG, NARANG, Vidya Bhavan, Bhavan, Mehta Vidyalaya, Vidya Bhavan, Bhavan, Mehta Vidyalaya, Gandhi Market Minto, Minto Road, Ashwani Narang, Narang</t>
-  </si>
-  <si>
-    <t>Vaman Bhere, Engineer, Bharat Vaman Bhere, Vaman Bhere, Engineer, Pradhan College, Engineer, Engineer, Vaman Keshav Bhere, Keshav Bhere, Shree Ganesh Niwas, Ganesh Niwas, Niwas, Thakkar Compound, Bharat V Bhere</t>
-  </si>
-  <si>
-    <t>MAURYA, BHASKAR MAURYA, MAURYA, Jhunjhunwala, BHASKAR MAURYA, MAURYA, Jhunjhunwala, Yash Corporations, Bhaskar Jayprakash Maurya, Jayprakash Maurya, Maurya, Rajaram Yadav Chawl, Yadav Chawl, Utkarsh Nagar, Nagar</t>
-  </si>
-  <si>
-    <t>BHAVSAR Ph, Ambika Bhavan, Bhavan, Engineer, Darshil Tejkaran Bhavsar, Bhavsar, Ambika Bhavan kopar, Bhavan kopar Road, Darshil Tejkaran Bhavsar, Bhavsar</t>
-  </si>
-  <si>
-    <t>Pushp vihar, Nagar, Java Script, Java Programmer, Java Platform, Bubna Advertising, Kumar, Kumar, Garg</t>
-  </si>
-  <si>
-    <t>Tiwari, shiv, Muslim University Aligarh, Veer Kunwar Singh, Kunwar Singh University, Singh University Ara, Ara Bihar, Lalan Tiwari, Tiwari, Kumar Tiwari, Tiwari</t>
-  </si>
-  <si>
-    <t>Abdul Kalam Technical, Kalam Technical University, Rajeev Gandhi Computer, Gandhi Computer Saakshrata, Engineer, Rajeev Gandhi Computer, Gandhi Computer Shakshrata, Java, Singh, Singh, Singh, Sahara Mall, Mall</t>
+    <t>NARANG, BHARAT NARANG, NARANG, Vidya Bhavan, Bhavan</t>
+  </si>
+  <si>
+    <t>Vaman Bhere, Engineer, Bharat Vaman Bhere, Vaman Bhere, Engineer</t>
+  </si>
+  <si>
+    <t>MAURYA, BHASKAR MAURYA, MAURYA, Jhunjhunwala, BHASKAR MAURYA</t>
+  </si>
+  <si>
+    <t>BHAVSAR Ph, Ambika Bhavan, Bhavan, Engineer, Darshil Tejkaran Bhavsar</t>
+  </si>
+  <si>
+    <t>Pushp vihar, Nagar, Java Script, Java Programmer, Java Platform</t>
+  </si>
+  <si>
+    <t>Tiwari, shiv, Muslim University Aligarh, Veer Kunwar Singh, Kunwar Singh University</t>
+  </si>
+  <si>
+    <t>Abdul Kalam Technical, Kalam Technical University, Rajeev Gandhi Computer, Gandhi Computer Saakshrata, Engineer</t>
   </si>
   <si>
     <t>java, Sona Koyo Steering, Sona Koyo Steering, Sona Koyo, Sona Groups flagship</t>
   </si>
   <si>
-    <t>Nehru Technological University, Jawaharlal Nehru Technological, Nehru Technological University, ADI, Master data, Jawaharlal Nehru Technological, Nehru Technological University, ADI, Master data, Jawaharlal Nehru Technological, Nehru Technological University, ADI, Master data</t>
-  </si>
-  <si>
-    <t>Durga vidya mandir, vidya mandir, mandir, TIWARI Thane, Java, java course, Tiwari, Tiwari house, Durga vidya mandir, vidya mandir School, mandir School, Manorama Nagar, Nagar, Tiwari</t>
-  </si>
-  <si>
-    <t>PRADIP MESTRY, MESTRY, Vivekananda Nagar, Nagar, CHETAN PRADIP MESTRY, PRADIP MESTRY, MESTRY, Vivekananda Nagar, Nagar, Master data, CHETAN PRADIP MESTRY, PRADIP MESTRY, MESTRY, Vivekananda Nagar, Nagar, Master data</t>
-  </si>
-  <si>
-    <t>Singh, Java Script, Chetan Singh, Singh, Java Script, Shri Aurobindo Society, Jeevan, Chetan Singh, Singh, Java Script, Shri Aurobindo Society, Jeevan, Chetan Singh, Singh, Java Script, Shri Aurobindo Society, Jeevan, Shri Aurobindo Society, Chetan Singh, Singh, Java Script, Shri Aurobindo Society, Jeevan, Shri Aurobindo Society, Uttar Pradesh Technical, Shri Ram College, Ram College MuzaffarNagar</t>
+    <t>Nehru Technological University, Jawaharlal Nehru Technological, Nehru Technological University, ADI, Master data</t>
+  </si>
+  <si>
+    <t>Durga vidya mandir, vidya mandir, mandir, TIWARI Thane, Java</t>
+  </si>
+  <si>
+    <t>PRADIP MESTRY, MESTRY, Vivekananda Nagar, Nagar, CHETAN PRADIP MESTRY</t>
+  </si>
+  <si>
+    <t>Singh, Java Script, Chetan Singh, Singh, Java Script</t>
   </si>
   <si>
     <t>Shree Rayeshwar Institute, Thomas High School, Engineer HEXAWARE TECHNOLOGIES, Shree Rayeshwar Institute, Thomas High School</t>
   </si>
   <si>
-    <t>Java Script, Java Script, Java Script, Rama Group Kanpur, Rama Group Kanpur, Rama Group Kanpur, Malik Law Chamber, Shri Ram Nivas, Ram Nivas Sharma, Sharma, Hari Krishna, Krishna</t>
-  </si>
-  <si>
-    <t>Snehal Terrace, Eklavya Polytechnic, Aditi Consultant, tank, RAVINDRA DANKE, Snehal Terrace, Eklavya Polytechnic, Aditi Consultant, tank, Engineer QA, RAVINDRA DANKE, Snehal Terrace, Eklavya Polytechnic, Aditi Consultant, tank, Engineer QA, Engineer QA, Maruti Suzuki, Engineer QC, RAVINDRA DANKE, Snehal Terrace, Eklavya Polytechnic, Aditi Consultant, tank, Engineer QA, Engineer QA, Maruti Suzuki, Engineer QC, master</t>
-  </si>
-  <si>
-    <t>Guru Nanak Institute, Nanak Institute, Kanti Chandra, Chandra, Ramakrishna Vivekananda Mission, Vivekananda Mission, Datta, Guru Nanak Institute, Nanak Institute, Kanti Chandra, Chandra, Ramakrishna Vivekananda Mission, Vivekananda Mission, Usha Breco, Datta, Guru Nanak Institute, Nanak Institute, Kanti Chandra, Chandra, Ramakrishna Vivekananda Mission, Vivekananda Mission, Usha Breco, Datta</t>
-  </si>
-  <si>
-    <t>Java Technologies, Java development skills, JAVA, Java, java, Pandurang Jagnnath Banagar, Pandurang Banagar</t>
+    <t>Java Script, Java Script, Java Script, Rama Group Kanpur, Rama Group Kanpur</t>
+  </si>
+  <si>
+    <t>Snehal Terrace, Eklavya Polytechnic, Aditi Consultant, tank, RAVINDRA DANKE</t>
+  </si>
+  <si>
+    <t>Guru Nanak Institute, Nanak Institute, Kanti Chandra, Chandra, Ramakrishna Vivekananda Mission</t>
+  </si>
+  <si>
+    <t>Java Technologies, Java development skills, JAVA, Java, java</t>
   </si>
   <si>
     <t>Engineer</t>
   </si>
   <si>
-    <t>GOUDA, DEBASISH GOUDA, GOUDA, engineer, Jagannath Institute, Trinath Gouda, Gouda, Debasish Gouda, Gouda</t>
+    <t>GOUDA, DEBASISH GOUDA, GOUDA, engineer, Jagannath Institute</t>
   </si>
   <si>
     <t>Java Technologies, Deepak Malana, DEEPAK MALANA</t>
   </si>
   <si>
-    <t>Kumar, Nagar, CHANDI, master page, master page, master page, Manoj Singh, Singh, Poonam Devi, Devi</t>
-  </si>
-  <si>
-    <t>Kumar, Engineer, Dev Suite, Maruti Suzuki India, Maruti Suzuki India, Maruti Suzuki, Master, Satpal Singh, Singh, Munesh Devi, Devi</t>
-  </si>
-  <si>
-    <t>Sharma, Uttar Pradesh, Engineer, Engineer, Yamuna Nagar, Nagar, master Detail Forms, Uttar Pradesh Technical, Punjabi, Deepak Sharma, Sharma</t>
-  </si>
-  <si>
-    <t>PANDEY, Balaji Creation, Kapoor Enterprises, Shree Agrashen, Balaji Creation, Ashok Nagar, Nagar, DEVENDRA PANDEY, PANDEY</t>
-  </si>
-  <si>
-    <t>Dilip Waditake, Engineer, Java technologies, Java technologiesExperience, Java, Engineer Dec, Engineer, Dinesh Dilip Waditake, Dilip Waditake, Dinesh Dilip Waditake, Dilip Waditake Contact, Engineer, Java, Java, Java ClassesProject Title, Java ClassesProject Title, Java Classes Involved, Padmashri Vikhe Patil, Patil Jr College, Dinesh Dilip WaditakeDate, Dilip WaditakeDate, Dinesh Waditake</t>
-  </si>
-  <si>
-    <t>Singh Sikarwar, java developer, Engineer July, Master Computer Application, Rajiv Gandhi Technical, Gandhi Technical University, Java, JAVA coding, Dinesh Sikarwar</t>
-  </si>
-  <si>
-    <t>Dipak Digambar, Digambar, Jain Darshan, Darshan, Manipal University, Java script, Done MCSA, Vashi, engineer, Vashi, Engineer, Engineer, Engineer, Dipak Digambar Patil, Digambar Patil, Patil</t>
-  </si>
-  <si>
-    <t>Shekar Edunoru, Java programming, Java Servlets, Java developer, Java Scripts, java programs, Chandra Shekar, Shekar</t>
-  </si>
-  <si>
-    <t>Java Design Patterns, MAHINDRA, Mahindra, Java Technologies, Java IDEsTools, Java Script, Engineer, Java, Engineer, JAVA, Java Swing, EDI Standard files, EDI Segments, EDI Segments, EDI Files, Engineer, Java, Forum</t>
-  </si>
-  <si>
-    <t>Ahmed Ansari, Ansari, Ayesha High School, Chain, Anwar Pawar Building, Pawar Building, Varsha Adarsha Nagar, Adarsha Nagar Near, Nagar Near Railway, Farid Ahmed Ansari, Ahmed Ansari, Ansari</t>
-  </si>
-  <si>
-    <t>Suneja, Engineer, Engineer, Engineer Specialist, Engineer, Geeta Suneja, Suneja, Gagan Suneja, Suneja</t>
-  </si>
-  <si>
-    <t>Ramdas Patil E-Mail, Patil E-Mail, Gajanan Ramdas Patil, Ramdas Patil, Patil, Gajanan R Patil, Patil</t>
-  </si>
-  <si>
-    <t>Uttam Nagar New, Nagar New Delhi, Yamuna Nagar Haryana, Nagar Haryana India, Manipal University, Manipal University, Singh</t>
-  </si>
-  <si>
-    <t>GANESH, chain management solutions, Engineer, Chain Application, Anna University, GANESH, Ganesh</t>
-  </si>
-  <si>
-    <t>SIVA PRASAD Mobile, PRASAD Mobile, GOKUL INSTITUTE OF, Jeevan Vriddhi, Jeevan Vriddhi plan, Nidhi PlanClient, Nidhi Plan, GANTA SIVA PRASAD, SIVA PRASAD, PRASAD, GANTA APPALA NAIDU, NAIDU, GANTA SIVA PRASAD, SIVA PRASAD, PRASAD</t>
+    <t>Kumar, Nagar, CHANDI, master page, master page</t>
+  </si>
+  <si>
+    <t>Kumar, Engineer, Dev Suite, Maruti Suzuki India, Maruti Suzuki India</t>
+  </si>
+  <si>
+    <t>Sharma, Uttar Pradesh, Engineer, Engineer, Yamuna Nagar</t>
+  </si>
+  <si>
+    <t>PANDEY, Balaji Creation, Kapoor Enterprises, Shree Agrashen, Balaji Creation</t>
+  </si>
+  <si>
+    <t>Dilip Waditake, Engineer, Java technologies, Java technologiesExperience, Java</t>
+  </si>
+  <si>
+    <t>Singh Sikarwar, java developer, Engineer July, Master Computer Application, Rajiv Gandhi Technical</t>
+  </si>
+  <si>
+    <t>Dipak Digambar, Digambar, Jain Darshan, Darshan, Manipal University</t>
+  </si>
+  <si>
+    <t>Shekar Edunoru, Java programming, Java Servlets, Java developer, Java Scripts</t>
+  </si>
+  <si>
+    <t>Java Design Patterns, MAHINDRA, Mahindra, Java Technologies, Java IDEsTools</t>
+  </si>
+  <si>
+    <t>Ahmed Ansari, Ansari, Ayesha High School, Chain, Anwar Pawar Building</t>
+  </si>
+  <si>
+    <t>Suneja, Engineer, Engineer, Engineer Specialist, Engineer</t>
+  </si>
+  <si>
+    <t>Ramdas Patil E-Mail, Patil E-Mail, Gajanan Ramdas Patil, Ramdas Patil, Patil</t>
+  </si>
+  <si>
+    <t>Uttam Nagar New, Nagar New Delhi, Yamuna Nagar Haryana, Nagar Haryana India, Manipal University</t>
+  </si>
+  <si>
+    <t>GANESH, chain management solutions, Engineer, Chain Application, Anna University</t>
+  </si>
+  <si>
+    <t>SIVA PRASAD Mobile, PRASAD Mobile, GOKUL INSTITUTE OF, Jeevan Vriddhi, Jeevan Vriddhi plan</t>
   </si>
   <si>
     <t>Java Technologies, Engineer, Ramdas Garje</t>
   </si>
   <si>
-    <t>GIRISH APARADH, Engineer, Engineer, Engineer, Java Script, Java Script, Java Script, Java Script, Datta Kripa Apt, Kripa Apt, Joshi Lane Gaon, Sunil Aparadh</t>
-  </si>
-  <si>
-    <t>Vijay Nagar, Nagar, OM module, Mamta Transformers PvtLtd, Master, master, Vijay Nagar, Nagar</t>
-  </si>
-  <si>
-    <t>Kumar, Mohan Nagar, Nagar, Shri Ram Nayak, Ram Nayak, Nayak, Indra Kumar, Kumar</t>
+    <t>GIRISH APARADH, Engineer, Engineer, Engineer, Java Script</t>
+  </si>
+  <si>
+    <t>Vijay Nagar, Nagar, OM module, Mamta Transformers PvtLtd, Master</t>
+  </si>
+  <si>
+    <t>Kumar, Mohan Nagar, Nagar, Shri Ram Nayak, Ram Nayak</t>
   </si>
   <si>
     <t>Nehru Nagar, Nagar, Engineer, Engineer capable, Audi</t>
   </si>
   <si>
-    <t>JAVA design patterns, Java Beans, JAVA Script, JAVA, Java, Java, java, Java Beans, java, Java Script, java, Java Beans</t>
-  </si>
-  <si>
-    <t>Engineer, Aakash Educational Service, Engineer, Engineer, Aakash Educational Service, Engineer, Aakash Educational Service, Haldia Refinery, Aakash Educational Service, DONE, AHMED</t>
-  </si>
-  <si>
-    <t>+91-9818666978</t>
-  </si>
-  <si>
-    <t>+91- 8802633086</t>
-  </si>
-  <si>
-    <t>+91-7042418592</t>
-  </si>
-  <si>
-    <t>+91-8076381647, 9873562657</t>
-  </si>
-  <si>
-    <t>8273937554</t>
-  </si>
-  <si>
-    <t>8898656070</t>
-  </si>
-  <si>
-    <t>+91-886-062-3079</t>
-  </si>
-  <si>
-    <t>+91-9811923391, 9811333462</t>
-  </si>
-  <si>
-    <t>+91-7391892334</t>
-  </si>
-  <si>
-    <t>8898979371</t>
-  </si>
-  <si>
-    <t>7021005682, 9130534752</t>
-  </si>
-  <si>
-    <t>+919699822153</t>
-  </si>
-  <si>
-    <t>9136709239</t>
-  </si>
-  <si>
-    <t>8446664528, 7387664528</t>
-  </si>
-  <si>
-    <t>7777925316</t>
-  </si>
-  <si>
-    <t>8082775818</t>
-  </si>
-  <si>
-    <t>+91-9008341132</t>
-  </si>
-  <si>
-    <t>+91-7838822221</t>
-  </si>
-  <si>
-    <t>9867919724</t>
-  </si>
-  <si>
-    <t>8123002933</t>
-  </si>
-  <si>
-    <t>+917978919981, 7205348006</t>
-  </si>
-  <si>
-    <t>9711966782</t>
-  </si>
-  <si>
-    <t>9764167664</t>
-  </si>
-  <si>
-    <t>9930529405, 7021273832</t>
-  </si>
-  <si>
-    <t>9833235503</t>
-  </si>
-  <si>
-    <t>+919619106995</t>
-  </si>
-  <si>
-    <t>+91-9373828284, 8076687452</t>
-  </si>
-  <si>
-    <t>+91-9867213279</t>
-  </si>
-  <si>
-    <t>- 9975822652</t>
-  </si>
-  <si>
-    <t>+91-9158241801, +91-8080435374</t>
-  </si>
-  <si>
-    <t>+918898726140</t>
-  </si>
-  <si>
-    <t>+91-8130240280</t>
-  </si>
-  <si>
-    <t>+91-7210627032</t>
-  </si>
-  <si>
-    <t>+91-9560041355, +91-9971091407</t>
-  </si>
-  <si>
-    <t>+91-7987885624</t>
-  </si>
-  <si>
-    <t>9807056653</t>
-  </si>
-  <si>
-    <t>+91-7039613308</t>
-  </si>
-  <si>
-    <t>+91-7666592931</t>
-  </si>
-  <si>
-    <t>9163009797</t>
-  </si>
-  <si>
-    <t>9643876887</t>
-  </si>
-  <si>
-    <t>+91-7905189089, +91-8595382384</t>
-  </si>
-  <si>
-    <t>+91- 9873224639</t>
-  </si>
-  <si>
-    <t>09773758797</t>
-  </si>
-  <si>
-    <t>8898780372</t>
-  </si>
-  <si>
-    <t>+91-9860618573</t>
-  </si>
-  <si>
-    <t>- 9086072604</t>
-  </si>
-  <si>
-    <t>8928048868</t>
-  </si>
-  <si>
-    <t>9935999621</t>
-  </si>
-  <si>
-    <t>+91-07838674545</t>
-  </si>
-  <si>
-    <t>8743035701, +918743035701</t>
-  </si>
-  <si>
-    <t>- 8982964635</t>
-  </si>
-  <si>
-    <t>+91-9910090323</t>
-  </si>
-  <si>
-    <t>9840304696</t>
-  </si>
-  <si>
-    <t>- 9211347452</t>
-  </si>
-  <si>
-    <t>+91-9590271727</t>
-  </si>
-  <si>
-    <t>9899378155</t>
-  </si>
-  <si>
-    <t>9940427017</t>
-  </si>
-  <si>
-    <t>+91-9910930387</t>
-  </si>
-  <si>
-    <t>9960 960 391</t>
-  </si>
-  <si>
-    <t>8767539438</t>
-  </si>
-  <si>
-    <t>8879920491, 8655260657</t>
-  </si>
-  <si>
-    <t>9599154657</t>
-  </si>
-  <si>
-    <t>8745810792, 8882003696</t>
-  </si>
-  <si>
-    <t>07011924294</t>
-  </si>
-  <si>
-    <t>+91- 7702764367</t>
-  </si>
-  <si>
-    <t>8247424031</t>
-  </si>
-  <si>
-    <t>9702 599 186</t>
-  </si>
-  <si>
-    <t>8446888626</t>
-  </si>
-  <si>
-    <t>+91-7827211055</t>
-  </si>
-  <si>
-    <t>+917798531960</t>
-  </si>
-  <si>
-    <t>+91-9899686133</t>
-  </si>
-  <si>
-    <t>9970014425</t>
-  </si>
-  <si>
-    <t>9836769103</t>
-  </si>
-  <si>
-    <t>9082367527, 7039154286</t>
-  </si>
-  <si>
-    <t>+91-9075927658</t>
-  </si>
-  <si>
-    <t>7387947673</t>
-  </si>
-  <si>
-    <t>8779821713, 8763505299</t>
-  </si>
-  <si>
-    <t>8339032467</t>
-  </si>
-  <si>
-    <t>+918882701389</t>
-  </si>
-  <si>
-    <t>9540255007</t>
-  </si>
-  <si>
-    <t>+919896866178, +918447415166</t>
-  </si>
-  <si>
-    <t>8510881080</t>
-  </si>
-  <si>
-    <t>8600828131</t>
-  </si>
-  <si>
-    <t>+91-8109274172</t>
-  </si>
-  <si>
-    <t>+91- 9167627412</t>
-  </si>
-  <si>
-    <t>7411692300</t>
-  </si>
-  <si>
-    <t>+91- 9082627267</t>
-  </si>
-  <si>
-    <t>+91-7021526575</t>
-  </si>
-  <si>
-    <t>+91-9893735130</t>
-  </si>
-  <si>
-    <t>+91- 9096155577</t>
-  </si>
-  <si>
-    <t>9990867216</t>
-  </si>
-  <si>
-    <t>9994358107</t>
-  </si>
-  <si>
-    <t>+917008318763</t>
-  </si>
-  <si>
-    <t>8169382826, 9403583754</t>
-  </si>
-  <si>
-    <t>08149227746</t>
-  </si>
-  <si>
-    <t>9630044288, +919131955298</t>
-  </si>
-  <si>
-    <t>9990527217</t>
-  </si>
-  <si>
-    <t>+919968041084</t>
-  </si>
-  <si>
-    <t>+91-9967426288</t>
-  </si>
-  <si>
-    <t>+91-9717400872</t>
-  </si>
-  <si>
-    <t>abhi.saran@gmail.com</t>
-  </si>
-  <si>
-    <t>arya.abhi1988@gmail.com</t>
-  </si>
-  <si>
-    <t>dalal.abhishek22@gmail.com</t>
-  </si>
-  <si>
-    <t>abhishekjha1991@hotmail.com</t>
-  </si>
-  <si>
-    <t>abhi.sharma1309@gmail.com</t>
-  </si>
-  <si>
-    <t>adarshyadav8898@gmail.com</t>
-  </si>
-  <si>
-    <t>adarshyadaw@gmail.com</t>
-  </si>
-  <si>
-    <t>ajaigaur@yahoo.com</t>
-  </si>
-  <si>
-    <t>ajaybhg@gmail.com, ajaybhg.apps@gmail.com</t>
-  </si>
-  <si>
-    <t>akangupta28@gmail.com</t>
-  </si>
-  <si>
-    <t>kambleakashg@gmail.com</t>
-  </si>
-  <si>
-    <t>maneakash787@gmail.com</t>
-  </si>
-  <si>
-    <t>akashandhale86@gmail.com</t>
-  </si>
-  <si>
-    <t>akhimca2000@gmail.com</t>
-  </si>
-  <si>
-    <t>panickersakhil@gmail.com</t>
-  </si>
-  <si>
-    <t>akshayshukla85@gmail.com</t>
-  </si>
-  <si>
-    <t>talgaonkar.akshay@gmail.com</t>
-  </si>
-  <si>
-    <t>tech.aloksingh@gmail.com</t>
-  </si>
-  <si>
-    <t>ahans43@gmail.com</t>
-  </si>
-  <si>
-    <t>kamarreddy8@gmail.com</t>
-  </si>
-  <si>
-    <t>amitesh.sql@gmail.com</t>
-  </si>
-  <si>
-    <t>amitmeher2010sd@gmail.com</t>
-  </si>
-  <si>
-    <t>amitmca107@gmail.com</t>
-  </si>
-  <si>
-    <t>ayfalke@gmail.com</t>
-  </si>
-  <si>
-    <t>amreshky8@gmail.com</t>
-  </si>
-  <si>
-    <t>ummaa12@gmail.com</t>
-  </si>
-  <si>
-    <t>anandkumarkannan29@gmail.com</t>
-  </si>
-  <si>
-    <t>anandd.ssingh@gmail.com</t>
-  </si>
-  <si>
-    <t>aniket.27.chalke@gmail.com</t>
-  </si>
-  <si>
-    <t>aniketdiware@gmail.com</t>
-  </si>
-  <si>
-    <t>anil.garg010@gmail.com, anil_garg010@rediffmail.com</t>
-  </si>
-  <si>
-    <t>anilwala4@gmail.com</t>
-  </si>
-  <si>
-    <t>ankitcoerian@gmail.com</t>
-  </si>
-  <si>
-    <t>ankitjaiswal023@gmail.com</t>
-  </si>
-  <si>
-    <t>india.anshuanand@gmail.com</t>
-  </si>
-  <si>
-    <t>anshulrathore0001@gmail.com</t>
-  </si>
-  <si>
-    <t>anshuman.t.tripathi5@gmail.com</t>
-  </si>
-  <si>
-    <t>anuragjec0091@gmail.com</t>
-  </si>
-  <si>
-    <t>abm.anurag@gmail.com</t>
-  </si>
-  <si>
-    <t>arjunsahkolkata@gmail.com</t>
-  </si>
-  <si>
-    <t>negi.arjun09@gmail.com</t>
-  </si>
-  <si>
-    <t>arpits096@gmail.com</t>
-  </si>
-  <si>
-    <t>khan.asfuddin9910@gmail.com</t>
-  </si>
-  <si>
-    <t>ashushaikh007@gmail.com</t>
-  </si>
-  <si>
-    <t>palashisha1@gmail.com, apal9623@gmail.com</t>
-  </si>
-  <si>
-    <t>ashishpowar17@gmail.com</t>
-  </si>
-  <si>
-    <t>ashish.8789@gmail.com</t>
-  </si>
-  <si>
-    <t>akadam210189@gmail.com</t>
-  </si>
-  <si>
-    <t>atulakv123@gmail.com</t>
-  </si>
-  <si>
-    <t>avadheshpandey2000@gmail.com</t>
-  </si>
-  <si>
-    <t>avinashvajpayee9@gmail.com</t>
-  </si>
-  <si>
-    <t>awanish2580@gmail.com</t>
-  </si>
-  <si>
-    <t>badrish15@gmail.com</t>
-  </si>
-  <si>
-    <t>balamurugan2000@gmail.com</t>
-  </si>
-  <si>
-    <t>-balwant.niit@gmail.com</t>
-  </si>
-  <si>
-    <t>bsgouda.patil@gmail.com</t>
-  </si>
-  <si>
-    <t>yadav.bhanu0@gmail.com</t>
-  </si>
-  <si>
-    <t>bharathirajacd@gmail.com</t>
-  </si>
-  <si>
-    <t>narangs.bharat@gmail.com</t>
-  </si>
-  <si>
-    <t>bharatbhere14@gmail.com</t>
-  </si>
-  <si>
-    <t>bhaskar.maurya612@gmail.com</t>
-  </si>
-  <si>
-    <t>bhavsarlucky49@gmail.com</t>
-  </si>
-  <si>
-    <t>bhupender.krgarg@gmail.com</t>
-  </si>
-  <si>
-    <t>tiwaribimlesh56@gmail.com</t>
-  </si>
-  <si>
-    <t>endbrij@yahoo.com</t>
-  </si>
-  <si>
-    <t>ctalasilaerp@gmail.com</t>
-  </si>
-  <si>
-    <t>chanakya0104@gmail.com</t>
-  </si>
-  <si>
-    <t>tiwaric111@gmail.com</t>
-  </si>
-  <si>
-    <t>cpmestry@gmail.com</t>
-  </si>
-  <si>
-    <t>chetansrc@gmail.com</t>
-  </si>
-  <si>
-    <t>chinmay8116@gmail.com</t>
-  </si>
-  <si>
-    <t>email-hari09july@gmail.com</t>
-  </si>
-  <si>
-    <t>ravindra_danke@yahoo.co.in</t>
-  </si>
-  <si>
-    <t>aishik.datta1011@gmail.com</t>
-  </si>
-  <si>
-    <t>dadasaheb0906@gmail.com</t>
-  </si>
-  <si>
-    <t>saidaebs14@gmail.com</t>
-  </si>
-  <si>
-    <t>shelkedattaj@gmail.com</t>
-  </si>
-  <si>
-    <t>tapudebasis@gmail.com</t>
-  </si>
-  <si>
-    <t>deepakmalana.101@gmail.com</t>
-  </si>
-  <si>
-    <t>deepakmanojsingh@gmail.com</t>
-  </si>
-  <si>
-    <t>oracle.dkbhadana@gmail.com</t>
-  </si>
-  <si>
-    <t>er.deepak46@yahoo.com</t>
-  </si>
-  <si>
-    <t>er.devendrapandey@hotmail.com</t>
-  </si>
-  <si>
-    <t>waditakedineshd@gmail.com</t>
-  </si>
-  <si>
-    <t>dinsoftpro15@gmail.com</t>
-  </si>
-  <si>
-    <t>dipak.dpatil1986@gmail.com</t>
-  </si>
-  <si>
-    <t>eshekar10@gmail.com</t>
-  </si>
-  <si>
-    <t>evn526870@gmail.com</t>
-  </si>
-  <si>
-    <t>mohammedansarifarid@gmail.com</t>
-  </si>
-  <si>
-    <t>er.gagansuneja@gmail.com</t>
-  </si>
-  <si>
-    <t>patilgajanan20@gmail.com</t>
-  </si>
-  <si>
-    <t>gskkokande@gmail.com</t>
-  </si>
-  <si>
-    <t>ganeshsharma93@gmail.com</t>
-  </si>
-  <si>
-    <t>sivaganta0546@gmail.com</t>
-  </si>
-  <si>
-    <t>garjear@gmail.com</t>
-  </si>
-  <si>
-    <t>girishaparadh7@gmail.com</t>
-  </si>
-  <si>
-    <t>harshbillore@gmail.com</t>
-  </si>
-  <si>
-    <t>indra.kashyap@gmail.com</t>
-  </si>
-  <si>
-    <t>ishwarchand90@gmail.com</t>
-  </si>
-  <si>
-    <t>izharulh.khan@gmail.com</t>
-  </si>
-  <si>
-    <t>decentikbal4u@gmail.com, jafarikbal4u@gmail.com</t>
+    <t>JAVA design patterns, Java Beans, JAVA Script, JAVA, Java</t>
+  </si>
+  <si>
+    <t>Engineer, Aakash Educational Service, Engineer, Engineer, Aakash Educational Service</t>
   </si>
 </sst>
 </file>
@@ -1944,13 +1935,13 @@
         <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1961,13 +1952,13 @@
         <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1978,13 +1969,13 @@
         <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1995,13 +1986,13 @@
         <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2012,13 +2003,13 @@
         <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2029,13 +2020,13 @@
         <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2046,13 +2037,13 @@
         <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2063,13 +2054,13 @@
         <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E9" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2080,13 +2071,13 @@
         <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2097,13 +2088,13 @@
         <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2114,13 +2105,13 @@
         <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E12" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2131,13 +2122,13 @@
         <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D13" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E13" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2148,13 +2139,13 @@
         <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E14" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2165,13 +2156,13 @@
         <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E15" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2182,13 +2173,13 @@
         <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E16" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2199,13 +2190,13 @@
         <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E17" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2216,13 +2207,13 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E18" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2233,13 +2224,13 @@
         <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2250,13 +2241,13 @@
         <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D20" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E20" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2267,13 +2258,13 @@
         <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D21" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E21" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2284,13 +2275,13 @@
         <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E22" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2301,13 +2292,13 @@
         <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E23" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2318,13 +2309,13 @@
         <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E24" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2334,8 +2325,8 @@
       <c r="B25" t="s">
         <v>134</v>
       </c>
-      <c r="C25" t="s">
-        <v>231</v>
+      <c r="E25" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2346,13 +2337,13 @@
         <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D26" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E26" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2363,13 +2354,13 @@
         <v>136</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D27" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E27" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2380,13 +2371,13 @@
         <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D28" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E28" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2394,16 +2385,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E29" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2411,16 +2402,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D30" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E30" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2428,16 +2419,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D31" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E31" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2445,16 +2436,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D32" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E32" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2462,16 +2453,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E33" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2479,16 +2470,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D34" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E34" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2496,16 +2487,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D35" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E35" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2513,16 +2504,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E36" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2530,16 +2521,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D37" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E37" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2547,16 +2538,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D38" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2564,16 +2555,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D39" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E39" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2581,16 +2572,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D40" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E40" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2598,16 +2589,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D41" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E41" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2615,16 +2606,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D42" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E42" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2632,16 +2623,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D43" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E43" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2649,16 +2640,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D44" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E44" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2666,16 +2657,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D45" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E45" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2683,16 +2674,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D46" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E46" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2700,16 +2691,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D47" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E47" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2717,16 +2708,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D48" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E48" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2734,16 +2725,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D49" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E49" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2751,16 +2742,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D50" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E50" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2768,16 +2759,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C51" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D51" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E51" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2785,16 +2776,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D52" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E52" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2802,16 +2793,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D53" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E53" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2819,16 +2810,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D54" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E54" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2836,16 +2827,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D55" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E55" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2853,16 +2844,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D56" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E56" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2870,10 +2861,10 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" t="s">
-        <v>261</v>
+        <v>161</v>
+      </c>
+      <c r="E57" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2881,16 +2872,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D58" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E58" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2898,16 +2889,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D59" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E59" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2915,16 +2906,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C60" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D60" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E60" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2932,16 +2923,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C61" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D61" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E61" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2949,16 +2940,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C62" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D62" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E62" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2966,16 +2957,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D63" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E63" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2983,16 +2974,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D64" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E64" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3000,16 +2991,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D65" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E65" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3017,16 +3008,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D66" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E66" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3034,16 +3025,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D67" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E67" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3051,16 +3042,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D68" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E68" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3068,16 +3059,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D69" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E69" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3085,16 +3076,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C70" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D70" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E70" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3102,16 +3093,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D71" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E71" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3119,16 +3110,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D72" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E72" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3136,16 +3127,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C73" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D73" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E73" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3156,13 +3147,13 @@
         <v>134</v>
       </c>
       <c r="C74" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D74" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E74" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3170,16 +3161,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C75" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D75" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E75" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3187,16 +3178,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C76" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D76" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E76" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3204,16 +3195,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C77" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D77" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E77" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3221,16 +3212,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C78" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D78" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E78" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3238,16 +3229,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C79" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D79" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E79" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3255,16 +3246,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C80" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D80" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E80" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3272,16 +3263,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C81" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D81" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E81" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3289,16 +3280,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C82" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D82" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E82" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3306,16 +3297,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C83" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D83" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E83" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3323,16 +3314,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C84" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D84" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E84" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3340,13 +3331,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="C85" t="s">
+        <v>283</v>
       </c>
       <c r="D85" t="s">
-        <v>387</v>
-      </c>
-      <c r="E85" t="s">
-        <v>488</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3354,16 +3345,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D86" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E86" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3371,16 +3362,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C87" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D87" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E87" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3388,16 +3379,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C88" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D88" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E88" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3405,16 +3396,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C89" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D89" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E89" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3422,16 +3413,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D90" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E90" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3439,16 +3430,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C91" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D91" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E91" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3456,16 +3447,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C92" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D92" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E92" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3473,16 +3464,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D93" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E93" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3490,16 +3481,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C94" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D94" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E94" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3507,16 +3498,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D95" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E95" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3524,16 +3515,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C96" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D96" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E96" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3541,16 +3532,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C97" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D97" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E97" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3558,16 +3549,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D98" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E98" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3575,16 +3566,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C99" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D99" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E99" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3592,16 +3583,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C100" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D100" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E100" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3609,16 +3600,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C101" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D101" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E101" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3629,13 +3620,13 @@
         <v>134</v>
       </c>
       <c r="C102" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D102" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E102" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3643,16 +3634,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D103" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E103" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3660,16 +3651,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C104" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D104" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E104" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3677,16 +3668,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C105" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D105" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E105" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3694,16 +3685,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C106" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D106" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E106" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3711,16 +3702,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C107" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D107" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E107" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3728,16 +3719,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C108" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D108" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E108" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3745,16 +3736,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C109" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D109" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E109" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3762,16 +3753,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C110" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D110" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E110" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3779,16 +3770,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C111" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D111" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E111" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
